--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2336677.87938574</v>
+        <v>2334790.297869337</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>321.5296920684223</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20.63421788630156</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>50.4315177721688</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>98.09203546875456</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>134.4744101939917</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>63.57678144609387</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>249.9269488460512</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448612</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481168</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>35.12287234938887</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>26.32882004050061</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>129.0246247964038</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>94.16481274941242</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>253.4345021185962</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206814</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>65.83311916721554</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>39.11561436815781</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,13 +1822,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>231.4883367804532</v>
+        <v>26.97444673954907</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002171</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,16 +2296,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>118.2422920270592</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>163.9563538534657</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>169.7438101404415</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>96.84207451769362</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985774</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404415</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896554</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801186</v>
+        <v>91.23070601801221</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437393</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>46.15337586179136</v>
+        <v>93.71057173897917</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523548</v>
+        <v>54.76109577523582</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550459</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298319</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.03409577002</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604798</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>111.8765232158119</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3187,7 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898629</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
         <v>80.48358288857172</v>
@@ -3199,7 +3199,7 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373703</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789549</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898711</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857163</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692845</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329052</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373686</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378954</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463127</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4507,25 +4507,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>677.8694207304588</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>463.5809975486215</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>463.5809975486215</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U4" t="n">
-        <v>463.5809975486215</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="V4" t="n">
-        <v>463.5809975486215</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>463.5809975486215</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
         <v>235.5914466506042</v>
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.41262192169</v>
+        <v>1659.880644283887</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1290.918127343476</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1290.918127343476</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>905.1298747452313</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>898.1843739960278</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>480.2205658942147</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>153.0258459302175</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
         <v>2544.691559791253</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U5" t="n">
-        <v>2111.475509265261</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V5" t="n">
-        <v>1780.41262192169</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W5" t="n">
-        <v>1780.41262192169</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="X5" t="n">
-        <v>1780.41262192169</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>1780.41262192169</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4641,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>348.020265289186</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064346</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2311.057514205146</v>
+        <v>983.0286321745432</v>
       </c>
       <c r="C8" t="n">
-        <v>1942.094997264734</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.829298657984</v>
+        <v>614.0661152341315</v>
       </c>
       <c r="E8" t="n">
-        <v>1198.041046059739</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
-        <v>787.0551412701318</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2430.46526502512</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205146</v>
+        <v>2099.402377681549</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205146</v>
+        <v>1746.633722411435</v>
       </c>
       <c r="X8" t="n">
-        <v>2311.057514205146</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y8" t="n">
-        <v>2311.057514205146</v>
+        <v>983.0286321745432</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761948</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482879</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359522</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>227.4276970359522</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>80.53774953804185</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>438.9553738610026</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>184.2708856551157</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>184.2708856551157</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,13 +5051,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>475.3232817706389</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X13" t="n">
-        <v>247.3337308726216</v>
+        <v>192.3330639344398</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.3337308726216</v>
+        <v>192.3330639344398</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550601</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610189</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851614</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590534</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>310.6051391271008</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1348.33044553573</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U16" t="n">
-        <v>786.082206476518</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706309</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W16" t="n">
-        <v>531.3977182706309</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>531.3977182706309</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>310.6051391271008</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,55 +5510,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>378.1030765138943</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.6350999123423</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035279</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247851</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>730.3091390162465</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>475.6246508103596</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>475.6246508103596</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>247.6350999123423</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.6350999123423</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>303.4575213834695</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>550.2226492899335</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>675.0071030383444</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>385.5899330013839</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028583</v>
+        <v>385.5899330013839</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636247</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>434.3285960683725</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404655</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404655</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404655</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404655</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,16 +6151,16 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471188</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765179</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>1133.38378183359</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>843.9666117966296</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028583</v>
+        <v>615.9770608986123</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028583</v>
+        <v>615.9770608986122</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,61 +6215,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>195.0373687508853</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765181</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952641</v>
+        <v>933.2366688293935</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>195.0373687508853</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
@@ -6461,28 +6461,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777667</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542227</v>
+        <v>491.5575547094957</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542227</v>
+        <v>378.3822370629595</v>
       </c>
       <c r="D31" t="n">
-        <v>439.5324299542227</v>
+        <v>284.0264629319944</v>
       </c>
       <c r="E31" t="n">
-        <v>347.3802016532006</v>
+        <v>191.8742346309719</v>
       </c>
       <c r="F31" t="n">
-        <v>256.2511194366613</v>
+        <v>191.8742346309719</v>
       </c>
       <c r="G31" t="n">
-        <v>143.8366630378529</v>
+        <v>191.8742346309719</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933506</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667516</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962061</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021649</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899273</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167073</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662002</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737487</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981897</v>
+        <v>902.6804289818923</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652506</v>
+        <v>730.4517433652454</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030914</v>
+        <v>617.4451542583647</v>
       </c>
     </row>
     <row r="32">
@@ -6689,34 +6689,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2379.156885434021</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
         <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,7 +6859,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7178,7 +7178,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515098</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2497.96918012961</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,61 +7306,61 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860495</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7409,25 +7409,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207829</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141292</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028586</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>966.693239001134</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265285</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083201</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>165.9802687929768</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>94.13752431970607</v>
       </c>
       <c r="O15" t="n">
-        <v>288.4091825776762</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>91.23759968302122</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.409182577676</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298301</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>15.83804904622849</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.409182577676</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298392</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,10 +9717,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>369.089388049373</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.409182577676</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9954,28 +9954,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>50.62661940943582</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,28 +10191,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>76.43196988338462</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>148.1350559470642</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>392.1113620226438</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10826,10 +10826,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>38.86002301949951</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>360.5026862907248</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>272.8719470256798</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>52.26914989715674</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>33.08849621799476</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>101.4137019314123</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>158.8051956154454</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>54.74901561812415</v>
+        <v>259.2629056590283</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338615</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>100.3423613250356</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,13 +24415,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.59120720492359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>82.39383318338653</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>70.40474658093422</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338653</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965504</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437429</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>47.55719587718745</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571467</v>
+        <v>55.21598883571502</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>51.50487350772593</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835418.9013800521</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800521</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800519</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>835418.901380052</v>
+        <v>835418.9013800519</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>835418.9013800519</v>
+        <v>835418.901380052</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>868584.3643559308</v>
+        <v>868584.3643559306</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
+        <v>547440.6836327926</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.6836327924</v>
+      </c>
+      <c r="G2" t="n">
+        <v>547440.6836327926</v>
+      </c>
+      <c r="H2" t="n">
         <v>547440.6836327927</v>
       </c>
-      <c r="F2" t="n">
-        <v>547440.6836327927</v>
-      </c>
-      <c r="G2" t="n">
-        <v>547440.6836327928</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>547440.6836327924</v>
       </c>
-      <c r="I2" t="n">
-        <v>547440.6836327928</v>
-      </c>
       <c r="J2" t="n">
-        <v>547440.6836327926</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="K2" t="n">
-        <v>569550.9922833785</v>
+        <v>569550.9922833784</v>
       </c>
       <c r="L2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049978</v>
       </c>
       <c r="M2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="N2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049978</v>
       </c>
       <c r="O2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="P2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049981</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925933</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284591</v>
+        <v>44162.60530284556</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086666</v>
+        <v>10342.90680086678</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284583</v>
+        <v>44162.6053028456</v>
       </c>
     </row>
     <row r="4">
@@ -26427,34 +26427,34 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143917</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143916</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563571</v>
+        <v>33210.29213563559</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275962</v>
+        <v>37464.45686275954</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.4568627596</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275962</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275957</v>
@@ -26470,37 +26470,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-254872.6766241778</v>
       </c>
       <c r="C6" t="n">
-        <v>335095.2025903669</v>
+        <v>335095.2025903667</v>
       </c>
       <c r="D6" t="n">
-        <v>335095.2025903669</v>
+        <v>335095.2025903665</v>
       </c>
       <c r="E6" t="n">
-        <v>-84752.34841425909</v>
+        <v>-84849.80754023124</v>
       </c>
       <c r="F6" t="n">
-        <v>440407.6880626371</v>
+        <v>440310.2289366646</v>
       </c>
       <c r="G6" t="n">
-        <v>440407.688062637</v>
+        <v>440310.2289366647</v>
       </c>
       <c r="H6" t="n">
-        <v>440407.6880626366</v>
+        <v>440310.2289366648</v>
       </c>
       <c r="I6" t="n">
-        <v>440407.6880626371</v>
+        <v>440310.2289366646</v>
       </c>
       <c r="J6" t="n">
-        <v>263984.4688700435</v>
+        <v>263887.0097440713</v>
       </c>
       <c r="K6" t="n">
-        <v>395549.886314674</v>
+        <v>395531.3925767401</v>
       </c>
       <c r="L6" t="n">
-        <v>429206.7694213467</v>
+        <v>429206.7694213461</v>
       </c>
       <c r="M6" t="n">
-        <v>304748.6609883767</v>
+        <v>304748.6609883764</v>
       </c>
       <c r="N6" t="n">
-        <v>439549.6762222133</v>
+        <v>439549.6762222127</v>
       </c>
       <c r="O6" t="n">
-        <v>439549.6762222133</v>
+        <v>439549.6762222135</v>
       </c>
       <c r="P6" t="n">
-        <v>395387.0709193678</v>
+        <v>395387.0709193675</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964064</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,31 +26738,31 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541</v>
-      </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855738</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108333</v>
+        <v>12.92863350108368</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855728</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545562</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855738</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>85.34635367328917</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>126.0309740938563</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>235.8503564698089</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>53.83928077610669</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>116.7497573142976</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>82.85718120047531</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>22.54869530067481</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>163.8572211747438</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>181.3254480082689</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>140.9809822185503</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491429</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28065,16 +28065,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.68503059263338</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.519424586149398e-12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855731</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="32">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,10 +31516,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,31 +31528,31 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472037</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396479</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478008</v>
@@ -31613,7 +31613,7 @@
         <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923048</v>
@@ -31622,19 +31622,19 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813579</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,43 +32151,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,43 +32388,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,43 +32625,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565517</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,43 +32862,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856232</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35179,7 +35179,7 @@
         <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
         <v>478.8956552492238</v>
@@ -35188,7 +35188,7 @@
         <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
         <v>153.997506289869</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770693</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>499.1748421909896</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>427.332097717719</v>
       </c>
       <c r="O15" t="n">
-        <v>570.7728848187842</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315245</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209231</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005177</v>
+        <v>241.8130382709604</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092005</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209231</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005177</v>
+        <v>166.4134876341677</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.363702241108</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209231</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081116</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005177</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560242</v>
+        <v>618.3470930053974</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.363702241108</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209231</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,19 +36522,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>361.0509964599022</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556546</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>358.7956721244929</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412284</v>
+        <v>67.7110267941225</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084859</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491602</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043207</v>
+        <v>94.42895660043173</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,7 +37154,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>236.1480887321383</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
@@ -37385,10 +37385,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37397,13 +37397,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>674.475064263752</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37546,10 +37546,10 @@
         <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>126.8730558045736</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>693.6972596887377</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
         <v>341.4087679352443</v>
@@ -37956,7 +37956,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>555.2356492667881</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
